--- a/APM files/127134576 parent RA case/Expedia Update Request per May 13, 2024.xlsx
+++ b/APM files/127134576 parent RA case/Expedia Update Request per May 13, 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\127134576 parent RA case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C7398-DD83-4E95-9A7D-CFAFC9744F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769CC02C-9966-4D33-A00F-B9E0FE0C00AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="5160" windowWidth="21510" windowHeight="13260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14610" yWindow="5910" windowWidth="21510" windowHeight="13260" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title Update" sheetId="1" r:id="rId1"/>
@@ -88,20 +88,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -112,18 +102,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -157,28 +141,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -200,9 +177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,18 +488,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>99992960</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -548,98 +525,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>95069713</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>95069718</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>95069725</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>95069768</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>95069776</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>95069779</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>95069783</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>104518161</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>104518167</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>104518171</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>104892600</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -655,7 +632,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -668,54 +645,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>29398903</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>40.587302999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>-73.813928000000004</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>11693</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -731,7 +708,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -746,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>48361326</v>
       </c>
@@ -766,7 +745,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -781,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>103442675</v>
       </c>
@@ -801,7 +782,9 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -816,7 +799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>22816148</v>
       </c>
@@ -824,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>20103607</v>
       </c>
